--- a/biology/Zoologie/Beierochelifer_geoffroyi/Beierochelifer_geoffroyi.xlsx
+++ b/biology/Zoologie/Beierochelifer_geoffroyi/Beierochelifer_geoffroyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierochelifer geoffroyi est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Provence-Alpes-Côte d'Azur en France[1]. Elle se rencontre dans les Alpes-de-Haute-Provence vers Mézel[2].
-Cette espèce corticicole a été découverte dans l'écorce d'un Érable sycomore[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Provence-Alpes-Côte d'Azur en France. Elle se rencontre dans les Alpes-de-Haute-Provence vers Mézel.
+Cette espèce corticicole a été découverte dans l'écorce d'un Érable sycomore.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,700 mm et la femelle paratype 3,400 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,700 mm et la femelle paratype 3,400 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Jacques Geoffroy[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Jacques Geoffroy.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heurtault, 1981 : Présence et signification dans la France méditerranéenne des espèces des genres Beierochelifer, Cheirochelifer et Calocheiridius (Arachnides, Pseudoscorpions). Atti della Società Toscana di Scienze Naturali, Memorie B, vol. 88 supplement, p. 209-222 (texte intégral).</t>
         </is>
